--- a/LR_ILS/data/Li-2021-JOCData/台风数据.xlsx
+++ b/LR_ILS/data/Li-2021-JOCData/台风数据.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19380\Downloads\Li-2021-JOC data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yurunfeng/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7219302C-68AE-41D8-A9D4-40910C752FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F1F113-3B66-1B4E-BAAC-6D170742CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="4080" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="损坏概率" sheetId="1" r:id="rId1"/>
     <sheet name="点信息" sheetId="2" r:id="rId2"/>
     <sheet name="台风信息" sheetId="3" r:id="rId3"/>
+    <sheet name="距离矩阵" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="291">
   <si>
     <t>LocationIndex</t>
   </si>
@@ -531,16 +543,388 @@
   </si>
   <si>
     <t>Toraji</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346.344 km</t>
+  </si>
+  <si>
+    <t>299.455 km</t>
+  </si>
+  <si>
+    <t>406.976 km</t>
+  </si>
+  <si>
+    <t>806.293 km</t>
+  </si>
+  <si>
+    <t>707.825 km</t>
+  </si>
+  <si>
+    <t>582.243 km</t>
+  </si>
+  <si>
+    <t>623.562 km</t>
+  </si>
+  <si>
+    <t>696.071 km</t>
+  </si>
+  <si>
+    <t>887.556 km</t>
+  </si>
+  <si>
+    <t>626.559 km</t>
+  </si>
+  <si>
+    <t>1148.479 km</t>
+  </si>
+  <si>
+    <t>435.725 km</t>
+  </si>
+  <si>
+    <t>1459.397 km</t>
+  </si>
+  <si>
+    <t>913.124 km</t>
+  </si>
+  <si>
+    <t>1017.273 km</t>
+  </si>
+  <si>
+    <t>641.613 km</t>
+  </si>
+  <si>
+    <t>749.404 km</t>
+  </si>
+  <si>
+    <t>498.293 km</t>
+  </si>
+  <si>
+    <t>393.829 km</t>
+  </si>
+  <si>
+    <t>901.75 km</t>
+  </si>
+  <si>
+    <t>962.391 km</t>
+  </si>
+  <si>
+    <t>1198.167 km</t>
+  </si>
+  <si>
+    <t>339.607 km</t>
+  </si>
+  <si>
+    <t>1416.855 km</t>
+  </si>
+  <si>
+    <t>672.705 km</t>
+  </si>
+  <si>
+    <t>1679.503 km</t>
+  </si>
+  <si>
+    <t>1146.93 km</t>
+  </si>
+  <si>
+    <t>1325.14 km</t>
+  </si>
+  <si>
+    <t>1021.767 km</t>
+  </si>
+  <si>
+    <t>107.841 km</t>
+  </si>
+  <si>
+    <t>1103.701 km</t>
+  </si>
+  <si>
+    <t>1006.445 km</t>
+  </si>
+  <si>
+    <t>409.804 km</t>
+  </si>
+  <si>
+    <t>385.484 km</t>
+  </si>
+  <si>
+    <t>406.426 km</t>
+  </si>
+  <si>
+    <t>609.112 km</t>
+  </si>
+  <si>
+    <t>884.499 km</t>
+  </si>
+  <si>
+    <t>905.706 km</t>
+  </si>
+  <si>
+    <t>327.257 km</t>
+  </si>
+  <si>
+    <t>1254.462 km</t>
+  </si>
+  <si>
+    <t>718.774 km</t>
+  </si>
+  <si>
+    <t>738.951 km</t>
+  </si>
+  <si>
+    <t>1209.775 km</t>
+  </si>
+  <si>
+    <t>1113.155 km</t>
+  </si>
+  <si>
+    <t>377.956 km</t>
+  </si>
+  <si>
+    <t>317.097 km</t>
+  </si>
+  <si>
+    <t>311.502 km</t>
+  </si>
+  <si>
+    <t>520.114 km</t>
+  </si>
+  <si>
+    <t>986.489 km</t>
+  </si>
+  <si>
+    <t>834.612 km</t>
+  </si>
+  <si>
+    <t>357.056 km</t>
+  </si>
+  <si>
+    <t>1198.588 km</t>
+  </si>
+  <si>
+    <t>676.996 km</t>
+  </si>
+  <si>
+    <t>648.573 km</t>
+  </si>
+  <si>
+    <t>104.857 km</t>
+  </si>
+  <si>
+    <t>1264.192 km</t>
+  </si>
+  <si>
+    <t>1361.51 km</t>
+  </si>
+  <si>
+    <t>1501.731 km</t>
+  </si>
+  <si>
+    <t>1687.54 km</t>
+  </si>
+  <si>
+    <t>568.867 km</t>
+  </si>
+  <si>
+    <t>1915.126 km</t>
+  </si>
+  <si>
+    <t>1170.991 km</t>
+  </si>
+  <si>
+    <t>2171.08 km</t>
+  </si>
+  <si>
+    <t>1643.551 km</t>
+  </si>
+  <si>
+    <t>1816.004 km</t>
+  </si>
+  <si>
+    <t>1185.001 km</t>
+  </si>
+  <si>
+    <t>1276.375 km</t>
+  </si>
+  <si>
+    <t>1401.921 km</t>
+  </si>
+  <si>
+    <t>1585.796 km</t>
+  </si>
+  <si>
+    <t>483.125 km</t>
+  </si>
+  <si>
+    <t>1810.67 km</t>
+  </si>
+  <si>
+    <t>1066.511 km</t>
+  </si>
+  <si>
+    <t>2066.478 km</t>
+  </si>
+  <si>
+    <t>1538.698 km</t>
+  </si>
+  <si>
+    <t>1713.944 km</t>
+  </si>
+  <si>
+    <t>149.003 km</t>
+  </si>
+  <si>
+    <t>576.706 km</t>
+  </si>
+  <si>
+    <t>773.449 km</t>
+  </si>
+  <si>
+    <t>1207.757 km</t>
+  </si>
+  <si>
+    <t>1122.836 km</t>
+  </si>
+  <si>
+    <t>728.681 km</t>
+  </si>
+  <si>
+    <t>1512.357 km</t>
+  </si>
+  <si>
+    <t>1025.751 km</t>
+  </si>
+  <si>
+    <t>882.298 km</t>
+  </si>
+  <si>
+    <t>446.516 km</t>
+  </si>
+  <si>
+    <t>634.032 km</t>
+  </si>
+  <si>
+    <t>1246.337 km</t>
+  </si>
+  <si>
+    <t>985.622 km</t>
+  </si>
+  <si>
+    <t>672.668 km</t>
+  </si>
+  <si>
+    <t>1379.151 km</t>
+  </si>
+  <si>
+    <t>910.909 km</t>
+  </si>
+  <si>
+    <t>738.352 km</t>
+  </si>
+  <si>
+    <t>211.399 km</t>
+  </si>
+  <si>
+    <t>1208.076 km</t>
+  </si>
+  <si>
+    <t>548.786 km</t>
+  </si>
+  <si>
+    <t>439.14 km</t>
+  </si>
+  <si>
+    <t>935.651 km</t>
+  </si>
+  <si>
+    <t>475.032 km</t>
+  </si>
+  <si>
+    <t>337.808 km</t>
+  </si>
+  <si>
+    <t>1350.229 km</t>
+  </si>
+  <si>
+    <t>·352.322 km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560.314 km</t>
+  </si>
+  <si>
+    <t>749.612 km</t>
+  </si>
+  <si>
+    <t>378.023 km</t>
+  </si>
+  <si>
+    <t>130.093 km</t>
+  </si>
+  <si>
+    <t>1467.287 km</t>
+  </si>
+  <si>
+    <t>1202.109 km</t>
+  </si>
+  <si>
+    <t>1689.725 km</t>
+  </si>
+  <si>
+    <t>790.132 km</t>
+  </si>
+  <si>
+    <t>1498.151 km</t>
+  </si>
+  <si>
+    <t>744.16 km</t>
+  </si>
+  <si>
+    <t>399.465 km</t>
+  </si>
+  <si>
+    <t>303.005 km</t>
+  </si>
+  <si>
+    <t>275.401 km</t>
+  </si>
+  <si>
+    <t>1027.319 km</t>
+  </si>
+  <si>
+    <t>483.02 km</t>
+  </si>
+  <si>
+    <t>677.704 km</t>
+  </si>
+  <si>
+    <t>546.348 km</t>
+  </si>
+  <si>
+    <t>672.04 km</t>
+  </si>
+  <si>
+    <t>407.31 km</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>·352.322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,9 +960,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -865,12 +1252,12 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1">
         <v>0.2</v>
       </c>
@@ -920,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>9.3332999999999999E-2</v>
       </c>
@@ -970,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>5.3332999999999998E-2</v>
       </c>
@@ -1020,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1070,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1120,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>1.3332999999999999E-2</v>
       </c>
@@ -1170,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>1.3332999999999999E-2</v>
       </c>
@@ -1220,7 +1607,7 @@
         <v>1.3332999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1270,7 +1657,7 @@
         <v>1.3332999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1320,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1370,7 +1757,7 @@
         <v>1.3332999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>2.6667E-2</v>
       </c>
@@ -1420,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1470,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>2.6667E-2</v>
       </c>
@@ -1520,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1570,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1620,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1681,16 +2068,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C387F2F-F5EF-4555-ABA8-558488F46587}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +2102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1736,7 +2125,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1759,7 +2148,7 @@
         <v>111.98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1782,7 +2171,7 @@
         <v>117.53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1805,7 +2194,7 @@
         <v>118.47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1828,7 +2217,7 @@
         <v>109.52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1851,7 +2240,7 @@
         <v>109.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1874,7 +2263,7 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1897,7 +2286,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1920,7 +2309,7 @@
         <v>119.99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1943,7 +2332,7 @@
         <v>120.64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1966,7 +2355,7 @@
         <v>108.95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1989,7 +2378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2012,7 +2401,7 @@
         <v>115.57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2035,7 +2424,7 @@
         <v>118.56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2058,7 +2447,7 @@
         <v>117.23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2084,6 +2473,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2091,13 +2481,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9369270B-7460-41B0-A3B0-F05F811F1664}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2114,7 +2504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2131,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2148,7 +2538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2162,7 +2552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2179,7 +2569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2196,7 +2586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2213,7 +2603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2230,7 +2620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2247,7 +2637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2264,7 +2654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2281,7 +2671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2298,7 +2688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2315,7 +2705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2332,7 +2722,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2349,7 +2739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2366,7 +2756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2383,7 +2773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2400,7 +2790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2417,7 +2807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2434,7 +2824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2451,7 +2841,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2468,7 +2858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2485,7 +2875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2502,7 +2892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2519,7 +2909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2536,7 +2926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2553,7 +2943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2570,7 +2960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2587,7 +2977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2604,7 +2994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2621,7 +3011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2638,7 +3028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2655,7 +3045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2672,7 +3062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2689,7 +3079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2706,7 +3096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2723,7 +3113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2740,7 +3130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2757,7 +3147,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2774,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2791,7 +3181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2808,7 +3198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2825,7 +3215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2842,7 +3232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2859,7 +3249,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2876,7 +3266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2893,7 +3283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2910,7 +3300,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2927,7 +3317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2944,7 +3334,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2961,7 +3351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2978,7 +3368,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2995,7 +3385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3012,7 +3402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3029,7 +3419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3046,7 +3436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3063,7 +3453,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3080,7 +3470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3097,7 +3487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3114,7 +3504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3131,7 +3521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3148,7 +3538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3165,7 +3555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3182,7 +3572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3199,7 +3589,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3216,7 +3606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3233,7 +3623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3250,7 +3640,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3267,7 +3657,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3284,7 +3674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3301,7 +3691,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3318,7 +3708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3335,7 +3725,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3352,7 +3742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3369,7 +3759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3386,7 +3776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3403,7 +3793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3420,7 +3810,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3437,7 +3827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3454,7 +3844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3471,7 +3861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3488,7 +3878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3505,7 +3895,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3522,7 +3912,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3539,7 +3929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3556,7 +3946,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3573,7 +3963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3590,7 +3980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3607,7 +3997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3624,7 +4014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3641,7 +4031,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3658,7 +4048,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3675,7 +4065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3692,7 +4082,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3709,7 +4099,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3726,7 +4116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3743,7 +4133,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3760,7 +4150,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3777,7 +4167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3794,7 +4184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3815,4 +4205,3146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9870D8-5D04-3F40-84C2-DE89FB1EC686}">
+  <dimension ref="A1:AT52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" t="str">
+        <f>SUBSTITUTE(C3," km","")</f>
+        <v>346.344</v>
+      </c>
+      <c r="T3" t="str">
+        <f>SUBSTITUTE(D3," km","")</f>
+        <v>299.455</v>
+      </c>
+      <c r="U3" t="str">
+        <f>SUBSTITUTE(E3," km","")</f>
+        <v>406.976</v>
+      </c>
+      <c r="V3" t="str">
+        <f>SUBSTITUTE(F3," km","")</f>
+        <v>806.293</v>
+      </c>
+      <c r="W3" t="str">
+        <f>SUBSTITUTE(G3," km","")</f>
+        <v>707.825</v>
+      </c>
+      <c r="X3" t="str">
+        <f>SUBSTITUTE(H3," km","")</f>
+        <v>582.243</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>SUBSTITUTE(I3," km","")</f>
+        <v>623.562</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>SUBSTITUTE(J3," km","")</f>
+        <v>696.071</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>SUBSTITUTE(K3," km","")</f>
+        <v>887.556</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>SUBSTITUTE(L3," km","")</f>
+        <v>626.559</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>SUBSTITUTE(M3," km","")</f>
+        <v>1148.479</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>SUBSTITUTE(N3," km","")</f>
+        <v>435.725</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>SUBSTITUTE(O3," km","")</f>
+        <v>1459.397</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>SUBSTITUTE(P3," km","")</f>
+        <v>913.124</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>SUBSTITUTE(Q3," km","")</f>
+        <v>1017.273</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" ref="AH3:AM3" si="0">SUBSTITUTE(S3," km","")</f>
+        <v>346.344</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v>299.455</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>406.976</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v>806.293</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v>707.825</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v>582.243</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>SUBSTITUTE(Y3," km","")</f>
+        <v>623.562</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>SUBSTITUTE(Z3," km","")</f>
+        <v>696.071</v>
+      </c>
+      <c r="AP3" t="str">
+        <f t="shared" ref="AP3" si="1">SUBSTITUTE(AA3," km","")</f>
+        <v>887.556</v>
+      </c>
+      <c r="AQ3" t="str">
+        <f t="shared" ref="AQ3" si="2">SUBSTITUTE(AB3," km","")</f>
+        <v>626.559</v>
+      </c>
+      <c r="AR3" t="str">
+        <f>SUBSTITUTE(AC3," km","")</f>
+        <v>1148.479</v>
+      </c>
+      <c r="AS3" t="str">
+        <f>SUBSTITUTE(AD3," km","")</f>
+        <v>435.725</v>
+      </c>
+      <c r="AT3" t="str">
+        <f t="shared" ref="AT3" si="3">SUBSTITUTE(AE3," km","")</f>
+        <v>1459.397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ref="S4:S18" si="4">SUBSTITUTE(C4," km","")</f>
+        <v>0</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T18" si="5">SUBSTITUTE(D4," km","")</f>
+        <v>641.613</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:U18" si="6">SUBSTITUTE(E4," km","")</f>
+        <v>749.404</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:V18" si="7">SUBSTITUTE(F4," km","")</f>
+        <v>498.293</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" ref="W4:W18" si="8">SUBSTITUTE(G4," km","")</f>
+        <v>393.829</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X18" si="9">SUBSTITUTE(H4," km","")</f>
+        <v>901.75</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" ref="Y4:Y18" si="10">SUBSTITUTE(I4," km","")</f>
+        <v>962.391</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z18" si="11">SUBSTITUTE(J4," km","")</f>
+        <v>1021.767</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" ref="AA4:AA18" si="12">SUBSTITUTE(K4," km","")</f>
+        <v>1198.167</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB18" si="13">SUBSTITUTE(L4," km","")</f>
+        <v>339.607</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC18" si="14">SUBSTITUTE(M4," km","")</f>
+        <v>1416.855</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" ref="AD4:AD18" si="15">SUBSTITUTE(N4," km","")</f>
+        <v>672.705</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE18" si="16">SUBSTITUTE(O4," km","")</f>
+        <v>1679.503</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" ref="AF4:AF18" si="17">SUBSTITUTE(P4," km","")</f>
+        <v>1146.93</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" ref="AG4:AG18" si="18">SUBSTITUTE(Q4," km","")</f>
+        <v>1325.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="6"/>
+        <v>107.841</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
+        <v>1103.701</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="8"/>
+        <v>1006.445</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="9"/>
+        <v>409.804</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="10"/>
+        <v>385.484</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="11"/>
+        <v>406.426</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="12"/>
+        <v>609.112</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="13"/>
+        <v>884.499</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="14"/>
+        <v>905.706</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="15"/>
+        <v>327.257</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="16"/>
+        <v>1254.462</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="17"/>
+        <v>718.774</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" si="18"/>
+        <v>738.951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N6" t="s">
+        <v>219</v>
+      </c>
+      <c r="O6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>222</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
+        <v>1209.775</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="8"/>
+        <v>1113.155</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="9"/>
+        <v>377.956</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="10"/>
+        <v>317.097</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="11"/>
+        <v>311.502</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="12"/>
+        <v>520.114</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="13"/>
+        <v>986.489</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="14"/>
+        <v>834.612</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="15"/>
+        <v>357.056</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="16"/>
+        <v>1198.588</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="17"/>
+        <v>676.996</v>
+      </c>
+      <c r="AG6" t="str">
+        <f t="shared" si="18"/>
+        <v>648.573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="8"/>
+        <v>104.857</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="9"/>
+        <v>1264.192</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="10"/>
+        <v>1361.51</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="11"/>
+        <v>1501.731</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="12"/>
+        <v>1687.54</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="13"/>
+        <v>568.867</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="14"/>
+        <v>1915.126</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="15"/>
+        <v>1170.991</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="16"/>
+        <v>2171.08</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="17"/>
+        <v>1643.551</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" si="18"/>
+        <v>1816.004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" t="s">
+        <v>239</v>
+      </c>
+      <c r="N8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="9"/>
+        <v>1185.001</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="10"/>
+        <v>1276.375</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="11"/>
+        <v>1401.921</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="12"/>
+        <v>1585.796</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="13"/>
+        <v>483.125</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="14"/>
+        <v>1810.67</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="15"/>
+        <v>1066.511</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="16"/>
+        <v>2066.478</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="17"/>
+        <v>1538.698</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="18"/>
+        <v>1713.944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" t="s">
+        <v>250</v>
+      </c>
+      <c r="P9" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="10"/>
+        <v>149.003</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="11"/>
+        <v>576.706</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="12"/>
+        <v>773.449</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="13"/>
+        <v>1207.757</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="14"/>
+        <v>1122.836</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="15"/>
+        <v>728.681</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="16"/>
+        <v>1512.357</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="17"/>
+        <v>1025.751</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="18"/>
+        <v>882.298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>260</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="11"/>
+        <v>446.516</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="12"/>
+        <v>634.032</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="13"/>
+        <v>1246.337</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="14"/>
+        <v>985.622</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="15"/>
+        <v>672.668</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="16"/>
+        <v>1379.151</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="17"/>
+        <v>910.909</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="18"/>
+        <v>738.352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11" t="s">
+        <v>264</v>
+      </c>
+      <c r="O11" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>267</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="12"/>
+        <v>211.399</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="13"/>
+        <v>1208.076</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="14"/>
+        <v>548.786</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="15"/>
+        <v>439.14</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="16"/>
+        <v>935.651</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="17"/>
+        <v>475.032</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="18"/>
+        <v>337.808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" t="s">
+        <v>269</v>
+      </c>
+      <c r="N12" t="s">
+        <v>270</v>
+      </c>
+      <c r="O12" t="s">
+        <v>271</v>
+      </c>
+      <c r="P12" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>273</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="13"/>
+        <v>1350.229</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="14"/>
+        <v>·352.322</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="15"/>
+        <v>560.314</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="16"/>
+        <v>749.612</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="17"/>
+        <v>378.023</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="18"/>
+        <v>130.093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>278</v>
+      </c>
+      <c r="N13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O13" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>274</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="14"/>
+        <v>1498.151</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="15"/>
+        <v>790.132</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="16"/>
+        <v>1689.725</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="17"/>
+        <v>1202.109</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="18"/>
+        <v>1467.287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>279</v>
+      </c>
+      <c r="O14" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>282</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="15"/>
+        <v>744.16</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="16"/>
+        <v>399.465</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="17"/>
+        <v>303.005</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="18"/>
+        <v>275.401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>283</v>
+      </c>
+      <c r="P15" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>285</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="16"/>
+        <v>1027.319</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="17"/>
+        <v>483.02</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="18"/>
+        <v>677.704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>287</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="17"/>
+        <v>546.348</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="18"/>
+        <v>672.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>288</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="18"/>
+        <v>407.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>346.34399999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>299.45499999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>406.976</v>
+      </c>
+      <c r="F20" s="2">
+        <v>806.29300000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>707.82500000000005</v>
+      </c>
+      <c r="H20" s="2">
+        <v>582.24300000000005</v>
+      </c>
+      <c r="I20" s="2">
+        <v>623.56200000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>696.07100000000003</v>
+      </c>
+      <c r="K20" s="2">
+        <v>887.55600000000004</v>
+      </c>
+      <c r="L20" s="2">
+        <v>626.55899999999997</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1148.479</v>
+      </c>
+      <c r="N20" s="2">
+        <v>435.72500000000002</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1459.3969999999999</v>
+      </c>
+      <c r="P20" s="2">
+        <v>913.12400000000002</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1017.273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="B21" s="3">
+        <v>346.34399999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>641.61300000000006</v>
+      </c>
+      <c r="E21" s="2">
+        <v>749.404</v>
+      </c>
+      <c r="F21" s="2">
+        <v>498.29300000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>393.82900000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>901.75</v>
+      </c>
+      <c r="I21" s="2">
+        <v>962.39099999999996</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1021.7670000000001</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1198.1669999999999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>339.60700000000003</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1416.855</v>
+      </c>
+      <c r="N21" s="2">
+        <v>672.70500000000004</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1679.5029999999999</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1146.93</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1325.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="B22" s="2">
+        <v>299.45499999999998</v>
+      </c>
+      <c r="C22" s="2">
+        <v>641.61300000000006</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>107.84099999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1103.701</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1006.4450000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>409.80399999999997</v>
+      </c>
+      <c r="I22" s="2">
+        <v>385.48399999999998</v>
+      </c>
+      <c r="J22" s="2">
+        <v>406.42599999999999</v>
+      </c>
+      <c r="K22" s="2">
+        <v>609.11199999999997</v>
+      </c>
+      <c r="L22" s="2">
+        <v>884.49900000000002</v>
+      </c>
+      <c r="M22" s="2">
+        <v>905.70600000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <v>327.25700000000001</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1254.462</v>
+      </c>
+      <c r="P22" s="2">
+        <v>718.774</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>738.95100000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="B23" s="2">
+        <v>406.976</v>
+      </c>
+      <c r="C23" s="2">
+        <v>749.404</v>
+      </c>
+      <c r="D23" s="2">
+        <v>107.84099999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1209.7750000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1113.155</v>
+      </c>
+      <c r="H23" s="2">
+        <v>377.95600000000002</v>
+      </c>
+      <c r="I23" s="2">
+        <v>317.09699999999998</v>
+      </c>
+      <c r="J23" s="2">
+        <v>311.50200000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>520.11400000000003</v>
+      </c>
+      <c r="L23" s="2">
+        <v>986.48900000000003</v>
+      </c>
+      <c r="M23" s="2">
+        <v>834.61199999999997</v>
+      </c>
+      <c r="N23" s="2">
+        <v>357.05599999999998</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1198.588</v>
+      </c>
+      <c r="P23" s="2">
+        <v>676.99599999999998</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>648.57299999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="B24" s="2">
+        <v>806.29300000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>498.29300000000001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1103.701</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1209.7750000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>104.857</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1264.192</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1361.51</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1501.731</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1687.54</v>
+      </c>
+      <c r="L24" s="2">
+        <v>568.86699999999996</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1915.126</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1170.991</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2171.08</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1643.5509999999999</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1816.0039999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="B25" s="2">
+        <v>707.82500000000005</v>
+      </c>
+      <c r="C25" s="2">
+        <v>393.82900000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1006.4450000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1113.155</v>
+      </c>
+      <c r="F25" s="2">
+        <v>104.857</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1185.001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1276.375</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1401.921</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1585.796</v>
+      </c>
+      <c r="L25" s="2">
+        <v>483.125</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1810.67</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1066.511</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2066.4780000000001</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1538.6980000000001</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1713.944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="B26" s="2">
+        <v>582.24300000000005</v>
+      </c>
+      <c r="C26" s="2">
+        <v>901.75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>409.80399999999997</v>
+      </c>
+      <c r="E26" s="2">
+        <v>377.95600000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1264.192</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1185.001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>149.00299999999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>576.70600000000002</v>
+      </c>
+      <c r="K26" s="2">
+        <v>773.44899999999996</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1207.7570000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1122.836</v>
+      </c>
+      <c r="N26" s="2">
+        <v>728.68100000000004</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1512.357</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1025.751</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>882.298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="B27" s="2">
+        <v>623.56200000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>962.39099999999996</v>
+      </c>
+      <c r="D27" s="2">
+        <v>385.48399999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <v>317.09699999999998</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1361.51</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1276.375</v>
+      </c>
+      <c r="H27" s="2">
+        <v>149.00299999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>446.51600000000002</v>
+      </c>
+      <c r="K27" s="2">
+        <v>634.03200000000004</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1246.337</v>
+      </c>
+      <c r="M27" s="2">
+        <v>985.62199999999996</v>
+      </c>
+      <c r="N27" s="2">
+        <v>672.66800000000001</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1379.1510000000001</v>
+      </c>
+      <c r="P27" s="2">
+        <v>910.90899999999999</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>738.35199999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="B28" s="2">
+        <v>696.07100000000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1021.7670000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>406.42599999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>311.50200000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1501.731</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1401.921</v>
+      </c>
+      <c r="H28" s="2">
+        <v>576.70600000000002</v>
+      </c>
+      <c r="I28" s="2">
+        <v>446.51600000000002</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>211.399</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1208.076</v>
+      </c>
+      <c r="M28" s="2">
+        <v>548.78599999999994</v>
+      </c>
+      <c r="N28" s="2">
+        <v>439.14</v>
+      </c>
+      <c r="O28" s="2">
+        <v>935.65099999999995</v>
+      </c>
+      <c r="P28" s="2">
+        <v>475.03199999999998</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>337.80799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="B29" s="2">
+        <v>887.55600000000004</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1198.1669999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>609.11199999999997</v>
+      </c>
+      <c r="E29" s="2">
+        <v>520.11400000000003</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1687.54</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1585.796</v>
+      </c>
+      <c r="H29" s="2">
+        <v>773.44899999999996</v>
+      </c>
+      <c r="I29" s="2">
+        <v>634.03200000000004</v>
+      </c>
+      <c r="J29" s="2">
+        <v>211.399</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1350.229</v>
+      </c>
+      <c r="M29" s="2">
+        <v>352.322</v>
+      </c>
+      <c r="N29" s="2">
+        <v>560.31399999999996</v>
+      </c>
+      <c r="O29" s="2">
+        <v>749.61199999999997</v>
+      </c>
+      <c r="P29" s="2">
+        <v>378.02300000000002</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>130.09299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="B30" s="2">
+        <v>626.55899999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>339.60700000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>884.49900000000002</v>
+      </c>
+      <c r="E30" s="2">
+        <v>986.48900000000003</v>
+      </c>
+      <c r="F30" s="2">
+        <v>568.86699999999996</v>
+      </c>
+      <c r="G30" s="2">
+        <v>483.125</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1207.7570000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1246.337</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1208.076</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1350.229</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1498.1510000000001</v>
+      </c>
+      <c r="N30" s="2">
+        <v>790.13199999999995</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1689.7249999999999</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1202.1089999999999</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1467.287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="B31" s="2">
+        <v>1148.479</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1416.855</v>
+      </c>
+      <c r="D31" s="2">
+        <v>905.70600000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>834.61199999999997</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1915.126</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1810.67</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1122.836</v>
+      </c>
+      <c r="I31" s="2">
+        <v>985.62199999999996</v>
+      </c>
+      <c r="J31" s="2">
+        <v>548.78599999999994</v>
+      </c>
+      <c r="K31" s="2">
+        <v>352.322</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1498.1510000000001</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>744.16</v>
+      </c>
+      <c r="O31" s="2">
+        <v>399.46499999999997</v>
+      </c>
+      <c r="P31" s="2">
+        <v>303.005</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>275.40100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="B32" s="2">
+        <v>435.72500000000002</v>
+      </c>
+      <c r="C32" s="2">
+        <v>672.70500000000004</v>
+      </c>
+      <c r="D32" s="2">
+        <v>327.25700000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>357.05599999999998</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1170.991</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1066.511</v>
+      </c>
+      <c r="H32" s="2">
+        <v>728.68100000000004</v>
+      </c>
+      <c r="I32" s="2">
+        <v>672.66800000000001</v>
+      </c>
+      <c r="J32" s="2">
+        <v>439.14</v>
+      </c>
+      <c r="K32" s="2">
+        <v>560.31399999999996</v>
+      </c>
+      <c r="L32" s="2">
+        <v>790.13199999999995</v>
+      </c>
+      <c r="M32" s="2">
+        <v>744.16</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1027.319</v>
+      </c>
+      <c r="P32" s="2">
+        <v>483.02</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>677.70399999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="2">
+        <v>1459.3969999999999</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1679.5029999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1254.462</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1198.588</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2171.08</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2066.4780000000001</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1512.357</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1379.1510000000001</v>
+      </c>
+      <c r="J33" s="2">
+        <v>935.65099999999995</v>
+      </c>
+      <c r="K33" s="2">
+        <v>749.61199999999997</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1689.7249999999999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>399.46499999999997</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1027.319</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>546.34799999999996</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>672.04</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="2">
+        <v>913.12400000000002</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1146.93</v>
+      </c>
+      <c r="D34" s="2">
+        <v>718.774</v>
+      </c>
+      <c r="E34" s="2">
+        <v>676.99599999999998</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1643.5509999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1538.6980000000001</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1025.751</v>
+      </c>
+      <c r="I34" s="2">
+        <v>910.90899999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>475.03199999999998</v>
+      </c>
+      <c r="K34" s="2">
+        <v>378.02300000000002</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1202.1089999999999</v>
+      </c>
+      <c r="M34" s="2">
+        <v>303.005</v>
+      </c>
+      <c r="N34" s="2">
+        <v>483.02</v>
+      </c>
+      <c r="O34" s="2">
+        <v>546.34799999999996</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>407.31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="2">
+        <v>1017.273</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1325.14</v>
+      </c>
+      <c r="D35" s="2">
+        <v>738.95100000000002</v>
+      </c>
+      <c r="E35" s="2">
+        <v>648.57299999999998</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1816.0039999999999</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1713.944</v>
+      </c>
+      <c r="H35" s="2">
+        <v>882.298</v>
+      </c>
+      <c r="I35" s="2">
+        <v>738.35199999999998</v>
+      </c>
+      <c r="J35" s="2">
+        <v>337.80799999999999</v>
+      </c>
+      <c r="K35" s="2">
+        <v>130.09299999999999</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1467.287</v>
+      </c>
+      <c r="M35" s="2">
+        <v>275.40100000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>677.70399999999995</v>
+      </c>
+      <c r="O35" s="2">
+        <v>672.04</v>
+      </c>
+      <c r="P35" s="2">
+        <v>407.31</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="3">
+        <v>346.34399999999999</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="2">
+        <v>299.45499999999998</v>
+      </c>
+      <c r="C39" s="2">
+        <v>641.61300000000006</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="2">
+        <v>406.976</v>
+      </c>
+      <c r="C40" s="2">
+        <v>749.404</v>
+      </c>
+      <c r="D40" s="2">
+        <v>107.84099999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="2">
+        <v>806.29300000000001</v>
+      </c>
+      <c r="C41" s="2">
+        <v>498.29300000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1103.701</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1209.7750000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="2">
+        <v>707.82500000000005</v>
+      </c>
+      <c r="C42" s="2">
+        <v>393.82900000000001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1006.4450000000001</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1113.155</v>
+      </c>
+      <c r="F42" s="2">
+        <v>104.857</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="2">
+        <v>582.24300000000005</v>
+      </c>
+      <c r="C43" s="2">
+        <v>901.75</v>
+      </c>
+      <c r="D43" s="2">
+        <v>409.80399999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <v>377.95600000000002</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1264.192</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1185.001</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2">
+        <v>623.56200000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <v>962.39099999999996</v>
+      </c>
+      <c r="D44" s="2">
+        <v>385.48399999999998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>317.09699999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1361.51</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1276.375</v>
+      </c>
+      <c r="H44" s="2">
+        <v>149.00299999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="2">
+        <v>696.07100000000003</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1021.7670000000001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>406.42599999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>311.50200000000001</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1501.731</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1401.921</v>
+      </c>
+      <c r="H45" s="2">
+        <v>576.70600000000002</v>
+      </c>
+      <c r="I45" s="2">
+        <v>446.51600000000002</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="2">
+        <v>887.55600000000004</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1198.1669999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>609.11199999999997</v>
+      </c>
+      <c r="E46" s="2">
+        <v>520.11400000000003</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1687.54</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1585.796</v>
+      </c>
+      <c r="H46" s="2">
+        <v>773.44899999999996</v>
+      </c>
+      <c r="I46" s="2">
+        <v>634.03200000000004</v>
+      </c>
+      <c r="J46" s="2">
+        <v>211.399</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="2">
+        <v>626.55899999999997</v>
+      </c>
+      <c r="C47" s="2">
+        <v>339.60700000000003</v>
+      </c>
+      <c r="D47" s="2">
+        <v>884.49900000000002</v>
+      </c>
+      <c r="E47" s="2">
+        <v>986.48900000000003</v>
+      </c>
+      <c r="F47" s="2">
+        <v>568.86699999999996</v>
+      </c>
+      <c r="G47" s="2">
+        <v>483.125</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1207.7570000000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1246.337</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1208.076</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1350.229</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="2">
+        <v>1148.479</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1416.855</v>
+      </c>
+      <c r="D48" s="2">
+        <v>905.70600000000002</v>
+      </c>
+      <c r="E48" s="2">
+        <v>834.61199999999997</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1915.126</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1810.67</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1122.836</v>
+      </c>
+      <c r="I48" s="2">
+        <v>985.62199999999996</v>
+      </c>
+      <c r="J48" s="2">
+        <v>548.78599999999994</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1498.1510000000001</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="2">
+        <v>435.72500000000002</v>
+      </c>
+      <c r="C49" s="2">
+        <v>672.70500000000004</v>
+      </c>
+      <c r="D49" s="2">
+        <v>327.25700000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>357.05599999999998</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1170.991</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1066.511</v>
+      </c>
+      <c r="H49" s="2">
+        <v>728.68100000000004</v>
+      </c>
+      <c r="I49" s="2">
+        <v>672.66800000000001</v>
+      </c>
+      <c r="J49" s="2">
+        <v>439.14</v>
+      </c>
+      <c r="K49" s="2">
+        <v>560.31399999999996</v>
+      </c>
+      <c r="L49" s="2">
+        <v>790.13199999999995</v>
+      </c>
+      <c r="M49" s="2">
+        <v>744.16</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="2">
+        <v>1459.3969999999999</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1679.5029999999999</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1254.462</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1198.588</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2171.08</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2066.4780000000001</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1512.357</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1379.1510000000001</v>
+      </c>
+      <c r="J50" s="2">
+        <v>935.65099999999995</v>
+      </c>
+      <c r="K50" s="2">
+        <v>749.61199999999997</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1689.7249999999999</v>
+      </c>
+      <c r="M50" s="2">
+        <v>399.46499999999997</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1027.319</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="2">
+        <v>913.12400000000002</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1146.93</v>
+      </c>
+      <c r="D51" s="2">
+        <v>718.774</v>
+      </c>
+      <c r="E51" s="2">
+        <v>676.99599999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1643.5509999999999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1538.6980000000001</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1025.751</v>
+      </c>
+      <c r="I51" s="2">
+        <v>910.90899999999999</v>
+      </c>
+      <c r="J51" s="2">
+        <v>475.03199999999998</v>
+      </c>
+      <c r="K51" s="2">
+        <v>378.02300000000002</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1202.1089999999999</v>
+      </c>
+      <c r="M51" s="2">
+        <v>303.005</v>
+      </c>
+      <c r="N51" s="2">
+        <v>483.02</v>
+      </c>
+      <c r="O51" s="2">
+        <v>546.34799999999996</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="2">
+        <v>1017.273</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1325.14</v>
+      </c>
+      <c r="D52" s="2">
+        <v>738.95100000000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>648.57299999999998</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1816.0039999999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1713.944</v>
+      </c>
+      <c r="H52" s="2">
+        <v>882.298</v>
+      </c>
+      <c r="I52" s="2">
+        <v>738.35199999999998</v>
+      </c>
+      <c r="J52" s="2">
+        <v>337.80799999999999</v>
+      </c>
+      <c r="K52" s="2">
+        <v>130.09299999999999</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1467.287</v>
+      </c>
+      <c r="M52" s="2">
+        <v>275.40100000000001</v>
+      </c>
+      <c r="N52" s="2">
+        <v>677.70399999999995</v>
+      </c>
+      <c r="O52" s="2">
+        <v>672.04</v>
+      </c>
+      <c r="P52" s="2">
+        <v>407.31</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>